--- a/ValidationData/TP/additional/excel/positive_known_fixed.xlsx
+++ b/ValidationData/TP/additional/excel/positive_known_fixed.xlsx
@@ -1183,10 +1183,8 @@
       <c r="BN2" t="b">
         <v>0</v>
       </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO2" t="b">
+        <v>1</v>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
@@ -1231,7 +1229,7 @@
         </is>
       </c>
       <c r="CD2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -1275,7 +1273,7 @@
       </c>
       <c r="CQ2" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR2" t="b">
@@ -1562,10 +1560,8 @@
       <c r="BN3" t="b">
         <v>0</v>
       </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO3" t="b">
+        <v>0</v>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
@@ -1610,7 +1606,7 @@
         </is>
       </c>
       <c r="CD3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -1654,7 +1650,7 @@
       </c>
       <c r="CQ3" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR3" t="b">
@@ -1935,10 +1931,8 @@
       <c r="BN4" t="b">
         <v>0</v>
       </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO4" t="b">
+        <v>1</v>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
@@ -2033,7 +2027,7 @@
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR4" t="b">
@@ -2308,10 +2302,8 @@
       <c r="BN5" t="b">
         <v>0</v>
       </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO5" t="b">
+        <v>1</v>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
@@ -2400,7 +2392,7 @@
       </c>
       <c r="CQ5" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR5" t="b">
@@ -2681,10 +2673,8 @@
       <c r="BN6" t="b">
         <v>0</v>
       </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO6" t="b">
+        <v>1</v>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
@@ -2735,7 +2725,7 @@
         </is>
       </c>
       <c r="CD6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
@@ -2779,7 +2769,7 @@
       </c>
       <c r="CQ6" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR6" t="b">
@@ -3066,10 +3056,8 @@
       <c r="BN7" t="b">
         <v>0</v>
       </c>
-      <c r="BO7" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO7" t="b">
+        <v>1</v>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
@@ -3114,7 +3102,7 @@
         </is>
       </c>
       <c r="CD7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
@@ -3158,7 +3146,7 @@
       </c>
       <c r="CQ7" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR7" t="b">
@@ -3441,10 +3429,8 @@
       <c r="BN8" t="b">
         <v>0</v>
       </c>
-      <c r="BO8" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO8" t="b">
+        <v>1</v>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
@@ -3533,7 +3519,7 @@
       </c>
       <c r="CQ8" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR8" t="b">
@@ -3832,10 +3818,8 @@
       <c r="BN9" t="b">
         <v>0</v>
       </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO9" t="b">
+        <v>0</v>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
@@ -3924,7 +3908,7 @@
       </c>
       <c r="CQ9" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR9" t="b">
@@ -3949,22 +3933,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sample_16260</t>
+          <t>Sample_21407</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sample_16261</t>
+          <t>Sample_21408</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sample_16262</t>
+          <t>Sample_21409</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IGD,IGD</t>
+          <t>SEMD</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -3972,7 +3956,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5-13717643-T-C</t>
+          <t>12-48387611-G-A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3983,25 +3967,25 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>13717643</v>
+        <v>48387611</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DNAH5</t>
+          <t>COL2A1</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4011,30 +3995,30 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>ENST00000265104</t>
+          <t>ENST00000380518</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>c.12500-14A&gt;G</t>
+          <t>c.905C&gt;T</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>splice_polypyrimidine_tract_variant&amp;intron_variant</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>72/78</t>
-        </is>
-      </c>
+          <t>missense_variant</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>14/54</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
           <t>-</t>
@@ -4042,76 +4026,64 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-84</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-208</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>-945</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>-219</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AD10" t="n">
         <v>0.91</v>
       </c>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>2.463</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>1.917</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>4.380</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>ENSG00000039139.11_15</t>
+          <t>ENSG00000139219.19_11</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>-1:0.7400000095367432</t>
+          <t>2:0.5699999928474426</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>-14:-0.7099999785423279</t>
+          <t>-19:-0.10999999940395355</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -4120,16 +4092,14 @@
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>0.7400000095367432</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>ENST00000265104.5_7</t>
-        </is>
-      </c>
-      <c r="AO10" t="n">
-        <v>-14</v>
-      </c>
+          <t>ENST00000380518.8_8</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>No</t>
@@ -4137,37 +4107,33 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>Exonic</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>[Error] Invalid_Value</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>non_exonic_variant</t>
-        </is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AT10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>63.63636363636363</v>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>non_SplicingExonPos</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Acceptor_int</t>
+          <t>Donor_ex</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
@@ -4177,24 +4143,24 @@
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>5-13717630-C-T:Pathogenic, 5-13717631-T-C:Likely_pathogenic, 5-13717637-G-A:Likely_benign, 5-13717638-G-A:Likely_benign, 5-13717648-T-C:Likely_benign, 5-13717649-G-A:Likely_benign</t>
+          <t>12-48387582-GGCCTCTCACCTTCACACCAGGAGCACCC-G:Pathogenic, 12-48387590-A-C:Likely_pathogenic</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>['Pathogenic', 'Likely_pathogenic', 'Likely_benign', 'Likely_benign', 'Likely_benign', 'Likely_benign']</t>
+          <t>['Pathogenic', 'Likely_pathogenic']</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 13717424, 'eEnd': 13717629, 'curt_Int': 72, 'curt_IntStart': 13717630, 'curt_IntEnd': 13718990, 'prev_Ex': 72, 'prev_ExStart': 13718991, 'prev_ExEnd': 13719210, 'next_Ex': 73, 'next_ExStart': 13717424, 'next_ExEnd': 13717629}</t>
+          <t>{'strand': '-', 'eStart': 48387592, 'eEnd': 48387645, 'curt_Ex': 14, 'curt_ExStart': 48387592, 'curt_ExEnd': 48387645, 'prev_Ex': 13, 'prev_ExStart': 48387777, 'prev_ExEnd': 48387830, 'next_Ex': 15, 'next_ExStart': 48387241, 'next_ExEnd': 48387285}</t>
         </is>
       </c>
       <c r="BB10" t="b">
         <v>0</v>
       </c>
       <c r="BC10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="b">
         <v>0</v>
@@ -4207,33 +4173,29 @@
       </c>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="n">
-        <v>13</v>
-      </c>
+      <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="n">
-        <v>13872</v>
+        <v>4461</v>
       </c>
       <c r="BN10" t="b">
         <v>0</v>
       </c>
-      <c r="BO10" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO10" t="b">
+        <v>1</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>Possibly_NMD</t>
+          <t>Exonic (Non-Canonical)</t>
         </is>
       </c>
       <c r="BQ10" t="b">
         <v>0</v>
       </c>
       <c r="BR10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="b">
         <v>0</v>
@@ -4245,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BV10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW10" t="inlineStr"/>
       <c r="BX10" t="inlineStr"/>
@@ -4267,40 +4229,40 @@
         </is>
       </c>
       <c r="CD10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>DNAH5</t>
+          <t>COL2A1</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>CILD3|DNAHC5|HL1|KTGNR|PCD</t>
+          <t>ANFH|AOM|COL11A3|SEDC|STL1</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>NM_001369.3</t>
+          <t>NM_001844.5</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>603335</t>
+          <t>120140</t>
         </is>
       </c>
       <c r="CK10" t="n">
-        <v>338</v>
+        <v>759</v>
       </c>
       <c r="CL10" t="inlineStr"/>
       <c r="CM10" t="inlineStr"/>
@@ -4311,7 +4273,7 @@
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR10" t="b">
@@ -4329,29 +4291,29 @@
       </c>
       <c r="CU10" t="inlineStr">
         <is>
-          <t>Mismatched phenotype</t>
+          <t>P (Reported variant)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sample_21407</t>
+          <t>Sample_16260</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sample_21408</t>
+          <t>Sample_16261</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sample_21409</t>
+          <t>Sample_16262</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SEMD</t>
+          <t>IGD,IGD</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -4359,7 +4321,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12-48387611-G-A</t>
+          <t>5-13717643-T-C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4370,25 +4332,25 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>48387611</v>
+        <v>13717643</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>COL2A1</t>
+          <t>DNAH5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4398,30 +4360,30 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>ENST00000380518</t>
+          <t>ENST00000265104</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>c.905C&gt;T</t>
+          <t>c.12500-14A&gt;G</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>missense_variant</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>14/54</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
+          <t>splice_polypyrimidine_tract_variant&amp;intron_variant</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>72/78</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>-</t>
@@ -4429,64 +4391,76 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>-84</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-208</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-945</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-219</t>
         </is>
       </c>
       <c r="AD11" t="n">
         <v>0.91</v>
       </c>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>2.463</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>1.917</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>4.380</t>
+        </is>
+      </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>ENSG00000139219.19_11</t>
+          <t>ENSG00000039139.11_15</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>2:0.5699999928474426</t>
+          <t>-1:0.7400000095367432</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>-19:-0.10999999940395355</t>
+          <t>-14:-0.7099999785423279</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -4495,14 +4469,16 @@
         </is>
       </c>
       <c r="AM11" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>ENST00000380518.8_8</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr"/>
+          <t>ENST00000265104.5_7</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
+        <v>-14</v>
+      </c>
       <c r="AP11" t="inlineStr">
         <is>
           <t>No</t>
@@ -4510,33 +4486,37 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>Exonic</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AT11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>63.63636363636363</v>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>[Error] Invalid_Value</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>non_exonic_variant</t>
+        </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>non_SplicingExonPos</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Donor_ex</t>
+          <t>Acceptor_int</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
@@ -4546,24 +4526,24 @@
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>12-48387582-GGCCTCTCACCTTCACACCAGGAGCACCC-G:Pathogenic, 12-48387590-A-C:Likely_pathogenic</t>
+          <t>5-13717630-C-T:Pathogenic, 5-13717631-T-C:Likely_pathogenic, 5-13717637-G-A:Likely_benign, 5-13717638-G-A:Likely_benign, 5-13717648-T-C:Likely_benign, 5-13717649-G-A:Likely_benign</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>['Pathogenic', 'Likely_pathogenic']</t>
+          <t>['Pathogenic', 'Likely_pathogenic', 'Likely_benign', 'Likely_benign', 'Likely_benign', 'Likely_benign']</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 48387592, 'eEnd': 48387645, 'curt_Ex': 14, 'curt_ExStart': 48387592, 'curt_ExEnd': 48387645, 'prev_Ex': 13, 'prev_ExStart': 48387777, 'prev_ExEnd': 48387830, 'next_Ex': 15, 'next_ExStart': 48387241, 'next_ExEnd': 48387285}</t>
+          <t>{'strand': '-', 'eStart': 13717424, 'eEnd': 13717629, 'curt_Int': 72, 'curt_IntStart': 13717630, 'curt_IntEnd': 13718990, 'prev_Ex': 72, 'prev_ExStart': 13718991, 'prev_ExEnd': 13719210, 'next_Ex': 73, 'next_ExStart': 13717424, 'next_ExEnd': 13717629}</t>
         </is>
       </c>
       <c r="BB11" t="b">
         <v>0</v>
       </c>
       <c r="BC11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" t="b">
         <v>0</v>
@@ -4576,31 +4556,31 @@
       </c>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
+      <c r="BI11" t="n">
+        <v>13</v>
+      </c>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="inlineStr"/>
       <c r="BM11" t="n">
-        <v>4461</v>
+        <v>13872</v>
       </c>
       <c r="BN11" t="b">
         <v>0</v>
       </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO11" t="b">
+        <v>1</v>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>Exonic (Non-Canonical)</t>
+          <t>Possibly_NMD</t>
         </is>
       </c>
       <c r="BQ11" t="b">
         <v>0</v>
       </c>
       <c r="BR11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11" t="b">
         <v>0</v>
@@ -4612,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="BV11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW11" t="inlineStr"/>
       <c r="BX11" t="inlineStr"/>
@@ -4634,40 +4614,40 @@
         </is>
       </c>
       <c r="CD11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>COL2A1</t>
+          <t>DNAH5</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>ANFH|AOM|COL11A3|SEDC|STL1</t>
+          <t>CILD3|DNAHC5|HL1|KTGNR|PCD</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>NM_001844.5</t>
+          <t>NM_001369.3</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>120140</t>
+          <t>603335</t>
         </is>
       </c>
       <c r="CK11" t="n">
-        <v>759</v>
+        <v>338</v>
       </c>
       <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="inlineStr"/>
@@ -4678,7 +4658,7 @@
       </c>
       <c r="CQ11" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR11" t="b">
@@ -4696,7 +4676,7 @@
       </c>
       <c r="CU11" t="inlineStr">
         <is>
-          <t>P (Reported variant)</t>
+          <t>Mismatched phenotype</t>
         </is>
       </c>
     </row>
@@ -4977,10 +4957,8 @@
       <c r="BN12" t="b">
         <v>0</v>
       </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO12" t="b">
+        <v>0</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -5069,7 +5047,7 @@
       </c>
       <c r="CQ12" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR12" t="b">
@@ -5094,22 +5072,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sample_12927</t>
+          <t>Sample_7528</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sample_12928</t>
+          <t>Sample_8129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sample_12929</t>
+          <t>Sample_7530</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ROHHADNET症候群,ROHHADNET症候群</t>
+          <t>腎不全_Galloway-Mowat症候群,腎不全_Galloway-Mowat症候群</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -5117,7 +5095,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11-113196245-G-A</t>
+          <t>12-53204538-A-G</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -5128,25 +5106,25 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>113196245</v>
+        <v>53204538</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>TTC12</t>
+          <t>KRT4</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -5156,73 +5134,73 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>23700</t>
+          <t>6441</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>ENST00000529221</t>
+          <t>ENST00000551956</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>c.323-1G&gt;A</t>
+          <t>c.738+2T&gt;C</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>splice_acceptor_variant</t>
+          <t>splice_donor_variant</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>5/21</t>
+          <t>3/8</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
           <t>0.98</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2129</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>215</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>-15</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD13" t="n">
@@ -5235,32 +5213,32 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>-1.062</t>
+          <t>2.813</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>7.754</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>7.689</t>
+          <t>10.567</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>ENSG00000149292.17_18</t>
+          <t>ENSG00000170477.13_9</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>10:0.6399999856948853</t>
+          <t>-15:0.7599999904632568</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>1:-0.8500000238418579</t>
+          <t>2:-0.75</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -5269,15 +5247,15 @@
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>ENST00000529221.6_10</t>
+          <t>ENST00000551956.2_6</t>
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -5316,7 +5294,7 @@
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Acceptor_int</t>
+          <t>Donor_int</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
@@ -5336,48 +5314,38 @@
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 113196246, 'eEnd': 113196367, 'curt_Int': 5, 'curt_IntStart': 113195405, 'curt_IntEnd': 113196245, 'prev_Ex': 5, 'prev_ExStart': 113195327, 'prev_ExEnd': 113195404, 'next_Ex': 6, 'next_ExStart': 113196246, 'next_ExEnd': 113196367}</t>
+          <t>{'strand': '-', 'eStart': 53204540, 'eEnd': 53204600, 'curt_Int': 3, 'curt_IntStart': 53203263, 'curt_IntEnd': 53204539, 'prev_Ex': 3, 'prev_ExStart': 53204540, 'prev_ExEnd': 53204600, 'next_Ex': 4, 'next_ExStart': 53203167, 'next_ExEnd': 53203262}</t>
         </is>
       </c>
       <c r="BB13" t="b">
         <v>0</v>
       </c>
       <c r="BC13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="b">
         <v>0</v>
       </c>
-      <c r="BG13" t="inlineStr">
-        <is>
-          <t>One exon skipping</t>
-        </is>
-      </c>
-      <c r="BH13" t="n">
-        <v>9</v>
-      </c>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="n">
-        <v>122</v>
-      </c>
+      <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="n">
-        <v>2115</v>
+        <v>1560</v>
       </c>
       <c r="BN13" t="b">
         <v>0</v>
       </c>
-      <c r="BO13" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO13" t="b">
+        <v>0</v>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
@@ -5397,30 +5365,18 @@
         <v>0</v>
       </c>
       <c r="BU13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW13" t="inlineStr">
-        <is>
-          <t>11 113196246 113196367</t>
-        </is>
-      </c>
-      <c r="BX13" t="inlineStr">
-        <is>
-          <t>11 113196246 113196255</t>
-        </is>
-      </c>
-      <c r="BY13" t="n">
-        <v>89.66841854099999</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>24.802902514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
@@ -5438,36 +5394,36 @@
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>TTC12</t>
+          <t>KRT4</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>CILD45|TPARM</t>
+          <t>CK-4|CK4|CYK4|K4|WSN1</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>NM_017868.4</t>
+          <t>NM_002272.4</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>UNK</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>23700</t>
+          <t>6441</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>610732</t>
+          <t>123940</t>
         </is>
       </c>
       <c r="CK13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CL13" t="inlineStr"/>
       <c r="CM13" t="inlineStr"/>
@@ -5478,7 +5434,7 @@
       </c>
       <c r="CQ13" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR13" t="b">
@@ -5503,22 +5459,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sample_11873</t>
+          <t>Sample_12927</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sample_11874</t>
+          <t>Sample_12928</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sample_11875</t>
+          <t>Sample_12929</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PDDNOS</t>
+          <t>ROHHADNET症候群,ROHHADNET症候群</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -5526,7 +5482,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8-8873831-G-A</t>
+          <t>11-113196245-G-A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -5537,11 +5493,11 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>8873831</v>
+        <v>113196245</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -5555,7 +5511,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>ERI1</t>
+          <t>TTC12</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -5565,17 +5521,17 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>23994</t>
+          <t>23700</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>ENST00000523898</t>
+          <t>ENST00000529221</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>c.499-1G&gt;A</t>
+          <t>c.323-1G&gt;A</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5586,7 +5542,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>4/7</t>
+          <t>5/21</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -5596,7 +5552,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -5606,17 +5562,17 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-2489</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5626,12 +5582,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>2516</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>122</t>
         </is>
       </c>
       <c r="AD14" t="n">
@@ -5644,7 +5600,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>3.177</t>
+          <t>-1.062</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -5654,22 +5610,22 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>11.927</t>
+          <t>7.689</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>ENSG00000104626.15_9</t>
+          <t>ENSG00000149292.17_18</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2:0.05000000074505806</t>
+          <t>10:0.6399999856948853</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>1:-0.8899999856948853</t>
+          <t>1:-0.8500000238418579</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -5678,36 +5634,34 @@
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>[Warning] ENST_with_Ver_not_available</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>[Warning] Invalid ENST ID</t>
-        </is>
+          <t>ENST00000529221.6_10</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
+        <v>-1</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>[Warning] Invalid ENST ID</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>[Warning] Invalid ENST ID</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>[Warning] Invalid ENST ID</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -5717,17 +5671,17 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>[Warning] Invalid ENST ID</t>
+          <t>non_exonic_variant</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>[Warning] Invalid ENST ID</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>[Warning] Uncalssified SpliceType</t>
+          <t>Acceptor_int</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
@@ -5737,54 +5691,60 @@
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>unk_SpliceType</t>
+          <t>No_ClinVar_info_found</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>['unk_Strand_or_SpliceType']</t>
+          <t>['No_ClinVar_info_found']</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>{'strand': '+', 'eStart': 113196246, 'eEnd': 113196367, 'curt_Int': 5, 'curt_IntStart': 113195405, 'curt_IntEnd': 113196245, 'prev_Ex': 5, 'prev_ExStart': 113195327, 'prev_ExEnd': 113195404, 'next_Ex': 6, 'next_ExStart': 113196246, 'next_ExEnd': 113196367}</t>
         </is>
       </c>
       <c r="BB14" t="b">
         <v>0</v>
       </c>
       <c r="BC14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" t="b">
         <v>0</v>
       </c>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>One exon skipping</t>
+        </is>
+      </c>
+      <c r="BH14" t="n">
+        <v>9</v>
+      </c>
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
+      <c r="BL14" t="n">
+        <v>122</v>
+      </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>2115</v>
       </c>
       <c r="BN14" t="b">
         <v>0</v>
       </c>
-      <c r="BO14" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO14" t="b">
+        <v>0</v>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>Exonic (Non-Canonical)</t>
+          <t>Possibly_NMD</t>
         </is>
       </c>
       <c r="BQ14" t="b">
@@ -5800,18 +5760,30 @@
         <v>0</v>
       </c>
       <c r="BU14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="inlineStr"/>
-      <c r="BX14" t="inlineStr"/>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>11 113196246 113196367</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>11 113196246 113196255</t>
+        </is>
+      </c>
+      <c r="BY14" t="n">
+        <v>89.66841854099999</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>24.802902514</v>
+      </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
@@ -5821,25 +5793,25 @@
       </c>
       <c r="CC14" t="inlineStr">
         <is>
-          <t>s0</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="CD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>ERI1</t>
+          <t>TTC12</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3'HEXO|HEXO|HXAL|SEMDGC|SEMDGS|THEX1</t>
+          <t>CILD45|TPARM</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>NM_153332.4</t>
+          <t>NM_017868.4</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
@@ -5849,12 +5821,12 @@
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>23994</t>
+          <t>23700</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>608739</t>
+          <t>610732</t>
         </is>
       </c>
       <c r="CK14" t="n">
@@ -5869,7 +5841,7 @@
       </c>
       <c r="CQ14" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR14" t="b">
@@ -5894,22 +5866,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sample_7528</t>
+          <t>Sample_11873</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sample_8129</t>
+          <t>Sample_11874</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sample_7530</t>
+          <t>Sample_11875</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>腎不全_Galloway-Mowat症候群,腎不全_Galloway-Mowat症候群</t>
+          <t>PDDNOS</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -5917,7 +5889,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12-53204538-A-G</t>
+          <t>8-8873831-G-A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -5928,25 +5900,25 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>53204538</v>
+        <v>8873831</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>KRT4</t>
+          <t>ERI1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -5956,33 +5928,33 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>6441</t>
+          <t>23994</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>ENST00000551956</t>
+          <t>ENST00000523898</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>c.738+2T&gt;C</t>
+          <t>c.499-1G&gt;A</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>splice_donor_variant</t>
+          <t>splice_acceptor_variant</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>3/8</t>
+          <t>4/7</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -5992,37 +5964,37 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2129</t>
+          <t>-2489</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AD15" t="n">
@@ -6035,32 +6007,32 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>2.813</t>
+          <t>3.177</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>7.754</t>
+          <t>8.750</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>10.567</t>
+          <t>11.927</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>ENSG00000170477.13_9</t>
+          <t>ENSG00000104626.15_9</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>-15:0.7599999904632568</t>
+          <t>2:0.05000000074505806</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>2:-0.75</t>
+          <t>1:-0.8899999856948853</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -6069,34 +6041,36 @@
         </is>
       </c>
       <c r="AM15" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>ENST00000551956.2_6</t>
-        </is>
-      </c>
-      <c r="AO15" t="n">
-        <v>2</v>
+          <t>[Warning] ENST_with_Ver_not_available</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>[Warning] Invalid ENST ID</t>
+        </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>[Warning] Invalid ENST ID</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>[Warning] Invalid ENST ID</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>[Warning] Invalid ENST ID</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -6106,17 +6080,17 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>non_exonic_variant</t>
+          <t>[Warning] Invalid ENST ID</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>[Warning] Invalid ENST ID</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Donor_int</t>
+          <t>[Warning] Uncalssified SpliceType</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
@@ -6126,17 +6100,17 @@
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>No_ClinVar_info_found</t>
+          <t>unk_SpliceType</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>['No_ClinVar_info_found']</t>
+          <t>['unk_Strand_or_SpliceType']</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 53204540, 'eEnd': 53204600, 'curt_Int': 3, 'curt_IntStart': 53203263, 'curt_IntEnd': 53204539, 'prev_Ex': 3, 'prev_ExStart': 53204540, 'prev_ExEnd': 53204600, 'next_Ex': 4, 'next_ExStart': 53203167, 'next_ExEnd': 53203262}</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="BB15" t="b">
@@ -6161,19 +6135,17 @@
       <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="b">
         <v>0</v>
       </c>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO15" t="b">
+        <v>0</v>
       </c>
       <c r="BP15" t="inlineStr">
         <is>
-          <t>Possibly_NMD</t>
+          <t>Exonic (Non-Canonical)</t>
         </is>
       </c>
       <c r="BQ15" t="b">
@@ -6200,7 +6172,7 @@
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="CB15" t="inlineStr">
@@ -6210,44 +6182,44 @@
       </c>
       <c r="CC15" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>s0</t>
         </is>
       </c>
       <c r="CD15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE15" t="inlineStr">
         <is>
-          <t>KRT4</t>
+          <t>ERI1</t>
         </is>
       </c>
       <c r="CF15" t="inlineStr">
         <is>
-          <t>CK-4|CK4|CYK4|K4|WSN1</t>
+          <t>3'HEXO|HEXO|HXAL|SEMDGC|SEMDGS|THEX1</t>
         </is>
       </c>
       <c r="CG15" t="inlineStr">
         <is>
-          <t>NM_002272.4</t>
+          <t>NM_153332.4</t>
         </is>
       </c>
       <c r="CH15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>UNK</t>
         </is>
       </c>
       <c r="CI15" t="inlineStr">
         <is>
-          <t>6441</t>
+          <t>23994</t>
         </is>
       </c>
       <c r="CJ15" t="inlineStr">
         <is>
-          <t>123940</t>
+          <t>608739</t>
         </is>
       </c>
       <c r="CK15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CL15" t="inlineStr"/>
       <c r="CM15" t="inlineStr"/>
@@ -6258,7 +6230,7 @@
       </c>
       <c r="CQ15" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR15" t="b">
@@ -6283,22 +6255,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sample_11467</t>
+          <t>Sample_20526</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sample_14076</t>
+          <t>Sample_22434</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sample_11468</t>
+          <t>Sample_20527</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rett症候群,Rett症候群</t>
+          <t>先端異骨症_白質脳症,先端異骨症_白質脳症</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -6306,7 +6278,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>X-153363075-G-A</t>
+          <t>6-51920384-C-T</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -6317,25 +6289,25 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>153363075</v>
+        <v>51920384</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MECP2</t>
+          <t>PKHD1</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -6345,30 +6317,30 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>9016</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>ENST00000453960</t>
+          <t>ENST00000371117</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>c.48C&gt;T</t>
+          <t>c.1836+1G&gt;A</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>synonymous_variant</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
+          <t>splice_donor_variant</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>19/66</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr">
         <is>
           <t>-</t>
@@ -6376,64 +6348,80 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-31</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-1371</t>
+          <t>143</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-156</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD16" t="n">
         <v>0.99</v>
       </c>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>1.116</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>8.182</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>9.298</t>
+        </is>
+      </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>ENSG00000169057.26_21</t>
+          <t>ENSG00000170927.15_12</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2:0.7599999904632568</t>
+          <t>-30:0.09000000357627869</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>-14:-0.5199999809265137</t>
+          <t>1:-0.8500000238418579</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -6442,68 +6430,74 @@
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>ENST00000453960.7_10</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr"/>
+          <t>ENST00000371117.8_9</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>Exonic</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AT16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>86.95652173913044</v>
+          <t>Intronic</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>[Error] Invalid_Value</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>non_exonic_variant</t>
+        </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>non_SplicingExonPos</t>
+          <t>Intronic</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Donor_ex</t>
+          <t>Donor_int</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>No_ClinVar_info_found</t>
+          <t>'Likely_pathogenic'</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>X-153363059-A-C:Pathogenic, X-153363059-A-T:Pathogenic, X-153363060-C-G:Likely_pathogenic, X-153363060-CAGTCTCTCCTCCTCGCCTCCTCCTCCTCCTCCGCTCGGCGCGGCGGCGGCGGCGGCGGCCATTTTCCGG-C:Likely_pathogenic, X-153363063-TCTCTCCTC-T:Pathogenic</t>
+          <t>6-51920384-C-G:Likely_pathogenic, 6-51920384-C-T:Likely_pathogenic, 6-51920385-G-A:Likely_benign</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>['Pathogenic', 'Pathogenic', 'Likely_pathogenic', 'Likely_pathogenic', 'Pathogenic']</t>
+          <t>['Likely_pathogenic', 'Likely_pathogenic', 'Likely_benign']</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 153363061, 'eEnd': 153363174, 'curt_Ex': 1, 'curt_ExStart': 153363061, 'curt_ExEnd': 153363174, 'prev_Ex': 0, 'prev_ExStart': '1st_Exon', 'prev_ExEnd': '1st_Exon', 'next_Ex': 2, 'next_ExStart': 153297658, 'next_ExEnd': 153298008}</t>
+          <t>{'strand': '-', 'eStart': 51920385, 'eEnd': 51920527, 'curt_Ex': 19, 'curt_ExStart': 51920385, 'curt_ExEnd': 51920527, 'prev_Ex': 18, 'prev_ExStart': 51921496, 'prev_ExEnd': 51921586, 'next_Ex': 20, 'next_ExStart': 51918836, 'next_ExEnd': 51918963}</t>
         </is>
       </c>
       <c r="BB16" t="b">
@@ -6516,27 +6510,31 @@
         <v>0</v>
       </c>
       <c r="BE16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" t="b">
         <v>0</v>
       </c>
-      <c r="BG16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>One exon skipping</t>
+        </is>
+      </c>
       <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
+      <c r="BL16" t="n">
+        <v>143</v>
+      </c>
       <c r="BM16" t="n">
-        <v>1494</v>
+        <v>12222</v>
       </c>
       <c r="BN16" t="b">
         <v>0</v>
       </c>
-      <c r="BO16" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO16" t="b">
+        <v>1</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
@@ -6556,65 +6554,71 @@
         <v>0</v>
       </c>
       <c r="BU16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>6 51920385 51920527</t>
+        </is>
+      </c>
       <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="inlineStr"/>
+      <c r="BY16" t="n">
+        <v>65.017561937</v>
+      </c>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="CB16" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
-          <t>s0</t>
+          <t>s14</t>
         </is>
       </c>
       <c r="CD16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="CE16" t="inlineStr">
         <is>
-          <t>MECP2</t>
+          <t>PKHD1</t>
         </is>
       </c>
       <c r="CF16" t="inlineStr">
         <is>
-          <t>AUTSX3|MRX16|MRX79|MRXS13|MRXSL|PPMX|RS|RTS|RTT</t>
+          <t>ARPKD|FCYT|FPC|PCYT|PKD4|TIGM1</t>
         </is>
       </c>
       <c r="CG16" t="inlineStr">
         <is>
-          <t>NM_004992.4</t>
+          <t>NM_138694.4</t>
         </is>
       </c>
       <c r="CH16" t="inlineStr">
         <is>
-          <t>XLD</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="CI16" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>9016</t>
         </is>
       </c>
       <c r="CJ16" t="inlineStr">
         <is>
-          <t>300005</t>
+          <t>606702</t>
         </is>
       </c>
       <c r="CK16" t="n">
-        <v>1182</v>
+        <v>728</v>
       </c>
       <c r="CL16" t="inlineStr"/>
       <c r="CM16" t="inlineStr"/>
@@ -6625,7 +6629,7 @@
       </c>
       <c r="CQ16" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR16" t="b">
@@ -6643,29 +6647,29 @@
       </c>
       <c r="CU16" t="inlineStr">
         <is>
-          <t>P (Reported variant)</t>
+          <t>Mismatched phenotype</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sample_20526</t>
+          <t>Sample_11467</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sample_22434</t>
+          <t>Sample_14076</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sample_20527</t>
+          <t>Sample_11468</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>先端異骨症_白質脳症,先端異骨症_白質脳症</t>
+          <t>Rett症候群,Rett症候群</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -6673,7 +6677,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6-51920384-C-T</t>
+          <t>X-153363075-G-A</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -6684,25 +6688,25 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>51920384</v>
+        <v>153363075</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>PKHD1</t>
+          <t>MECP2</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -6712,30 +6716,30 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>9016</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>ENST00000371117</t>
+          <t>ENST00000453960</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>c.1836+1G&gt;A</t>
+          <t>c.48C&gt;T</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>splice_donor_variant</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>19/66</t>
-        </is>
-      </c>
+          <t>synonymous_variant</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>-</t>
@@ -6743,80 +6747,64 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-71</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>-1371</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>-156</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AD17" t="n">
         <v>0.99</v>
       </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>1.116</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>8.182</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>9.298</t>
-        </is>
-      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>ENSG00000170927.15_12</t>
+          <t>ENSG00000169057.26_21</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>-30:0.09000000357627869</t>
+          <t>2:0.7599999904632568</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1:-0.8500000238418579</t>
+          <t>-14:-0.5199999809265137</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
@@ -6825,74 +6813,68 @@
         </is>
       </c>
       <c r="AM17" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>ENST00000371117.8_9</t>
-        </is>
-      </c>
-      <c r="AO17" t="n">
-        <v>1</v>
-      </c>
+          <t>ENST00000453960.7_10</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>Exonic</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>Intronic</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>[Error] Invalid_Value</t>
-        </is>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>non_exonic_variant</t>
-        </is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AT17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>86.95652173913044</v>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>Intronic</t>
+          <t>non_SplicingExonPos</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Donor_int</t>
+          <t>Donor_ex</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>'Likely_pathogenic'</t>
+          <t>No_ClinVar_info_found</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>6-51920384-C-G:Likely_pathogenic, 6-51920384-C-T:Likely_pathogenic, 6-51920385-G-A:Likely_benign</t>
+          <t>X-153363059-A-C:Pathogenic, X-153363059-A-T:Pathogenic, X-153363060-C-G:Likely_pathogenic, X-153363060-CAGTCTCTCCTCCTCGCCTCCTCCTCCTCCTCCGCTCGGCGCGGCGGCGGCGGCGGCGGCCATTTTCCGG-C:Likely_pathogenic, X-153363063-TCTCTCCTC-T:Pathogenic</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>['Likely_pathogenic', 'Likely_pathogenic', 'Likely_benign']</t>
+          <t>['Pathogenic', 'Pathogenic', 'Likely_pathogenic', 'Likely_pathogenic', 'Pathogenic']</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 51920385, 'eEnd': 51920527, 'curt_Ex': 19, 'curt_ExStart': 51920385, 'curt_ExEnd': 51920527, 'prev_Ex': 18, 'prev_ExStart': 51921496, 'prev_ExEnd': 51921586, 'next_Ex': 20, 'next_ExStart': 51918836, 'next_ExEnd': 51918963}</t>
+          <t>{'strand': '-', 'eStart': 153363061, 'eEnd': 153363174, 'curt_Ex': 1, 'curt_ExStart': 153363061, 'curt_ExEnd': 153363174, 'prev_Ex': 0, 'prev_ExStart': '1st_Exon', 'prev_ExEnd': '1st_Exon', 'next_Ex': 2, 'next_ExStart': 153297658, 'next_ExEnd': 153298008}</t>
         </is>
       </c>
       <c r="BB17" t="b">
@@ -6905,33 +6887,25 @@
         <v>0</v>
       </c>
       <c r="BE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="b">
         <v>0</v>
       </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>One exon skipping</t>
-        </is>
-      </c>
+      <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="n">
-        <v>143</v>
-      </c>
+      <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="n">
-        <v>12222</v>
+        <v>1494</v>
       </c>
       <c r="BN17" t="b">
         <v>0</v>
       </c>
-      <c r="BO17" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO17" t="b">
+        <v>1</v>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
@@ -6951,71 +6925,65 @@
         <v>0</v>
       </c>
       <c r="BU17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW17" t="inlineStr">
-        <is>
-          <t>6 51920385 51920527</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BW17" t="inlineStr"/>
       <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="n">
-        <v>65.017561937</v>
-      </c>
+      <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>s7</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
         <is>
-          <t>s14</t>
+          <t>s0</t>
         </is>
       </c>
       <c r="CD17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>PKHD1</t>
+          <t>MECP2</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>ARPKD|FCYT|FPC|PCYT|PKD4|TIGM1</t>
+          <t>AUTSX3|MRX16|MRX79|MRXS13|MRXSL|PPMX|RS|RTS|RTT</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>NM_138694.4</t>
+          <t>NM_004992.4</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>XLD</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>9016</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>606702</t>
+          <t>300005</t>
         </is>
       </c>
       <c r="CK17" t="n">
-        <v>728</v>
+        <v>1182</v>
       </c>
       <c r="CL17" t="inlineStr"/>
       <c r="CM17" t="inlineStr"/>
@@ -7026,7 +6994,7 @@
       </c>
       <c r="CQ17" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR17" t="b">
@@ -7044,29 +7012,29 @@
       </c>
       <c r="CU17" t="inlineStr">
         <is>
-          <t>Mismatched phenotype</t>
+          <t>P (Reported variant)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sample_17579</t>
+          <t>Sample_2288</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sample_17580</t>
+          <t>Sample_2290</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sample_17581</t>
+          <t>Sample_2289</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IGD疑い(先天性糖鎖異常症),IGD疑い(先天性糖鎖異常症)</t>
+          <t>もやもや</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -7074,7 +7042,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>X-153283572-C-A</t>
+          <t>6-35277588-G-C</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7085,25 +7053,25 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>153283572</v>
+        <v>35277588</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>IRAK1</t>
+          <t>DEF6</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7113,75 +7081,75 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>6112</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>ENST00000369980</t>
+          <t>ENST00000316637</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>c.795-1G&gt;T</t>
+          <t>c.237+1G&gt;C</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>splice_acceptor_variant</t>
+          <t>splice_donor_variant</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>6/13</t>
+          <t>2/10</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>-1681</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
       <c r="AD18" t="n">
         <v>1</v>
       </c>
@@ -7192,32 +7160,32 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1.813</t>
+          <t>-2.403</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>8.598</t>
+          <t>8.273</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>10.411</t>
+          <t>5.870</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>ENSG00000184216.15_22</t>
+          <t>ENSG00000023892.12_8</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>-47:0.23999999463558197</t>
+          <t>-17:0.23999999463558197</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>-1:-0.8899999856948853</t>
+          <t>-1:-0.8600000143051147</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -7226,15 +7194,15 @@
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>ENST00000369980.8_11</t>
+          <t>ENST00000316637.7_4</t>
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -7273,7 +7241,7 @@
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Acceptor_int</t>
+          <t>Donor_int</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
@@ -7293,17 +7261,17 @@
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 153283457, 'eEnd': 153283571, 'curt_Int': 6, 'curt_IntStart': 153283572, 'curt_IntEnd': 153283741, 'prev_Ex': 6, 'prev_ExStart': 153283742, 'prev_ExEnd': 153283806, 'next_Ex': 7, 'next_ExStart': 153283457, 'next_ExEnd': 153283571}</t>
+          <t>{'strand': '+', 'eStart': 35277447, 'eEnd': 35277587, 'curt_Ex': 2, 'curt_ExStart': 35277447, 'curt_ExEnd': 35277587, 'prev_Ex': 1, 'prev_ExStart': 35265595, 'prev_ExEnd': 35265729, 'next_Ex': 3, 'next_ExStart': 35278236, 'next_ExEnd': 35278421}</t>
         </is>
       </c>
       <c r="BB18" t="b">
         <v>0</v>
       </c>
       <c r="BC18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="b">
         <v>0</v>
@@ -7312,33 +7280,29 @@
         <v>1</v>
       </c>
       <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="n">
-        <v>46</v>
-      </c>
+      <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>170</v>
+        <v>648</v>
       </c>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="n">
-        <v>2136</v>
+        <v>1893</v>
       </c>
       <c r="BN18" t="b">
         <v>0</v>
       </c>
-      <c r="BO18" t="inlineStr">
-        <is>
-          <t>Non-eLoF gene</t>
-        </is>
+      <c r="BO18" t="b">
+        <v>1</v>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>Possibly_NMD</t>
+          <t>Exonic (Non-Canonical)</t>
         </is>
       </c>
       <c r="BQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR18" t="b">
         <v>0</v>
@@ -7347,27 +7311,21 @@
         <v>0</v>
       </c>
       <c r="BT18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" t="b">
         <v>0</v>
       </c>
       <c r="BV18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW18" t="inlineStr"/>
-      <c r="BX18" t="inlineStr">
-        <is>
-          <t>X 153283525 153283571</t>
-        </is>
-      </c>
+      <c r="BX18" t="inlineStr"/>
       <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="n">
-        <v>64.79987321</v>
-      </c>
+      <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>s11</t>
+          <t>s9</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
@@ -7385,17 +7343,17 @@
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>IRAK1</t>
+          <t>DEF6</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>IRAK|pelle</t>
+          <t>IBP|IMD87|SLAT|SWAP70L</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>NM_001569.4</t>
+          <t>NM_022047.4</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
@@ -7405,16 +7363,16 @@
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>6112</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>300283</t>
+          <t>610094</t>
         </is>
       </c>
       <c r="CK18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL18" t="inlineStr"/>
       <c r="CM18" t="inlineStr"/>
@@ -7425,7 +7383,7 @@
       </c>
       <c r="CQ18" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR18" t="b">
@@ -7724,10 +7682,8 @@
       <c r="BN19" t="b">
         <v>0</v>
       </c>
-      <c r="BO19" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO19" t="b">
+        <v>1</v>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
@@ -7816,7 +7772,7 @@
       </c>
       <c r="CQ19" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR19" t="b">
@@ -7841,22 +7797,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sample_5100</t>
+          <t>Sample_17579</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sample_5101</t>
+          <t>Sample_17580</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sample_5102</t>
+          <t>Sample_17581</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>脳プロ</t>
+          <t>IGD疑い(先天性糖鎖異常症),IGD疑い(先天性糖鎖異常症)</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -7864,7 +7820,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15-64047525-C-T</t>
+          <t>X-153283572-C-A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7875,11 +7831,11 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>64047525</v>
+        <v>153283572</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -7888,12 +7844,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>HERC1</t>
+          <t>IRAK1</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7903,17 +7859,17 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>4867</t>
+          <t>6112</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>ENST00000443617</t>
+          <t>ENST00000369980</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>c.1534-1G&gt;A</t>
+          <t>c.795-1G&gt;T</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -7924,7 +7880,7 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>5/77</t>
+          <t>6/13</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -7934,7 +7890,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -7944,17 +7900,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-47</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -7964,12 +7920,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-1681</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>-97</t>
+          <t>170</t>
         </is>
       </c>
       <c r="AD20" t="n">
@@ -7982,32 +7938,32 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>-0.759</t>
+          <t>1.813</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>8.750</t>
+          <t>8.598</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>7.991</t>
+          <t>10.411</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>ENSG00000103657.14_14</t>
+          <t>ENSG00000184216.15_22</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>-2:0.09000000357627869</t>
+          <t>-47:0.23999999463558197</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>-1:-0.8500000238418579</t>
+          <t>-1:-0.8899999856948853</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -8016,11 +7972,11 @@
         </is>
       </c>
       <c r="AM20" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>ENST00000443617.7_6</t>
+          <t>ENST00000369980.8_11</t>
         </is>
       </c>
       <c r="AO20" t="n">
@@ -8073,56 +8029,52 @@
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>15-64047534-A-G:Likely_benign</t>
+          <t>No_ClinVar_info_found</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>['Likely_benign']</t>
+          <t>['No_ClinVar_info_found']</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>{'strand': '-', 'eStart': 64047428, 'eEnd': 64047524, 'curt_Int': 5, 'curt_IntStart': 64047525, 'curt_IntEnd': 64048635, 'prev_Ex': 5, 'prev_ExStart': 64048636, 'prev_ExEnd': 64048947, 'next_Ex': 6, 'next_ExStart': 64047428, 'next_ExEnd': 64047524}</t>
+          <t>{'strand': '-', 'eStart': 153283457, 'eEnd': 153283571, 'curt_Int': 6, 'curt_IntStart': 153283572, 'curt_IntEnd': 153283741, 'prev_Ex': 6, 'prev_ExStart': 153283742, 'prev_ExEnd': 153283806, 'next_Ex': 7, 'next_ExStart': 153283457, 'next_ExEnd': 153283571}</t>
         </is>
       </c>
       <c r="BB20" t="b">
         <v>0</v>
       </c>
       <c r="BC20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="inlineStr">
-        <is>
-          <t>One exon skipping</t>
-        </is>
-      </c>
-      <c r="BH20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="n">
+        <v>46</v>
+      </c>
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="n">
-        <v>97</v>
-      </c>
+      <c r="BK20" t="n">
+        <v>170</v>
+      </c>
+      <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="n">
-        <v>14583</v>
+        <v>2136</v>
       </c>
       <c r="BN20" t="b">
         <v>0</v>
       </c>
-      <c r="BO20" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO20" t="b">
+        <v>0</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
@@ -8130,7 +8082,7 @@
         </is>
       </c>
       <c r="BQ20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" t="b">
         <v>0</v>
@@ -8139,27 +8091,27 @@
         <v>0</v>
       </c>
       <c r="BT20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20" t="b">
         <v>1</v>
       </c>
-      <c r="BW20" t="inlineStr">
-        <is>
-          <t>15 64047428 64047524</t>
-        </is>
-      </c>
-      <c r="BX20" t="inlineStr"/>
-      <c r="BY20" t="n">
-        <v>90.056053537</v>
-      </c>
-      <c r="BZ20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>X 153283525 153283571</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="n">
+        <v>64.79987321</v>
+      </c>
       <c r="CA20" t="inlineStr">
         <is>
-          <t>s10</t>
+          <t>s11</t>
         </is>
       </c>
       <c r="CB20" t="inlineStr">
@@ -8173,21 +8125,21 @@
         </is>
       </c>
       <c r="CD20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE20" t="inlineStr">
         <is>
-          <t>HERC1</t>
+          <t>IRAK1</t>
         </is>
       </c>
       <c r="CF20" t="inlineStr">
         <is>
-          <t>MDFPMR|p532|p619</t>
+          <t>IRAK|pelle</t>
         </is>
       </c>
       <c r="CG20" t="inlineStr">
         <is>
-          <t>NM_003922.4</t>
+          <t>NM_001569.4</t>
         </is>
       </c>
       <c r="CH20" t="inlineStr">
@@ -8197,16 +8149,16 @@
       </c>
       <c r="CI20" t="inlineStr">
         <is>
-          <t>4867</t>
+          <t>6112</t>
         </is>
       </c>
       <c r="CJ20" t="inlineStr">
         <is>
-          <t>605109</t>
+          <t>300283</t>
         </is>
       </c>
       <c r="CK20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="CL20" t="inlineStr"/>
       <c r="CM20" t="inlineStr"/>
@@ -8217,7 +8169,7 @@
       </c>
       <c r="CQ20" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR20" t="b">
@@ -8242,22 +8194,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sample_2288</t>
+          <t>Sample_5100</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sample_2290</t>
+          <t>Sample_5101</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sample_2289</t>
+          <t>Sample_5102</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>もやもや</t>
+          <t>脳プロ</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -8265,7 +8217,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6-35277588-G-C</t>
+          <t>15-64047525-C-T</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8276,25 +8228,25 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>35277588</v>
+        <v>64047525</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DEF6</t>
+          <t>HERC1</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8304,73 +8256,73 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>4867</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ENST00000316637</t>
+          <t>ENST00000443617</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>c.237+1G&gt;C</t>
+          <t>c.1534-1G&gt;A</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>splice_donor_variant</t>
+          <t>splice_acceptor_variant</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>5/77</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-97</t>
         </is>
       </c>
       <c r="AD21" t="n">
@@ -8383,32 +8335,32 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>-2.403</t>
+          <t>-0.759</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>8.273</t>
+          <t>8.750</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>5.870</t>
+          <t>7.991</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>ENSG00000023892.12_8</t>
+          <t>ENSG00000103657.14_14</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>-17:0.23999999463558197</t>
+          <t>-2:0.09000000357627869</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>-1:-0.8600000143051147</t>
+          <t>-1:-0.8500000238418579</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
@@ -8417,15 +8369,15 @@
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>ENST00000316637.7_4</t>
+          <t>ENST00000443617.7_6</t>
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -8464,7 +8416,7 @@
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Donor_int</t>
+          <t>Acceptor_int</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
@@ -8474,17 +8426,17 @@
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>No_ClinVar_info_found</t>
+          <t>15-64047534-A-G:Likely_benign</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>['No_ClinVar_info_found']</t>
+          <t>['Likely_benign']</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>{'strand': '+', 'eStart': 35277447, 'eEnd': 35277587, 'curt_Ex': 2, 'curt_ExStart': 35277447, 'curt_ExEnd': 35277587, 'prev_Ex': 1, 'prev_ExStart': 35265595, 'prev_ExEnd': 35265729, 'next_Ex': 3, 'next_ExStart': 35278236, 'next_ExEnd': 35278421}</t>
+          <t>{'strand': '-', 'eStart': 64047428, 'eEnd': 64047524, 'curt_Int': 5, 'curt_IntStart': 64047525, 'curt_IntEnd': 64048635, 'prev_Ex': 5, 'prev_ExStart': 64048636, 'prev_ExEnd': 64048947, 'next_Ex': 6, 'next_ExStart': 64047428, 'next_ExEnd': 64047524}</t>
         </is>
       </c>
       <c r="BB21" t="b">
@@ -8497,33 +8449,35 @@
         <v>0</v>
       </c>
       <c r="BE21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>One exon skipping</t>
+        </is>
+      </c>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="n">
-        <v>648</v>
-      </c>
-      <c r="BL21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="n">
+        <v>97</v>
+      </c>
       <c r="BM21" t="n">
-        <v>1893</v>
+        <v>14583</v>
       </c>
       <c r="BN21" t="b">
         <v>0</v>
       </c>
-      <c r="BO21" t="inlineStr">
-        <is>
-          <t>eLoF gene</t>
-        </is>
+      <c r="BO21" t="b">
+        <v>1</v>
       </c>
       <c r="BP21" t="inlineStr">
         <is>
-          <t>Exonic (Non-Canonical)</t>
+          <t>Possibly_NMD</t>
         </is>
       </c>
       <c r="BQ21" t="b">
@@ -8539,18 +8493,24 @@
         <v>0</v>
       </c>
       <c r="BU21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>15 64047428 64047524</t>
+        </is>
+      </c>
       <c r="BX21" t="inlineStr"/>
-      <c r="BY21" t="inlineStr"/>
+      <c r="BY21" t="n">
+        <v>90.056053537</v>
+      </c>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="inlineStr">
         <is>
-          <t>s9</t>
+          <t>s10</t>
         </is>
       </c>
       <c r="CB21" t="inlineStr">
@@ -8564,21 +8524,21 @@
         </is>
       </c>
       <c r="CD21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CE21" t="inlineStr">
         <is>
-          <t>DEF6</t>
+          <t>HERC1</t>
         </is>
       </c>
       <c r="CF21" t="inlineStr">
         <is>
-          <t>IBP|IMD87|SLAT|SWAP70L</t>
+          <t>MDFPMR|p532|p619</t>
         </is>
       </c>
       <c r="CG21" t="inlineStr">
         <is>
-          <t>NM_022047.4</t>
+          <t>NM_003922.4</t>
         </is>
       </c>
       <c r="CH21" t="inlineStr">
@@ -8588,16 +8548,16 @@
       </c>
       <c r="CI21" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>4867</t>
         </is>
       </c>
       <c r="CJ21" t="inlineStr">
         <is>
-          <t>610094</t>
+          <t>605109</t>
         </is>
       </c>
       <c r="CK21" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="CL21" t="inlineStr"/>
       <c r="CM21" t="inlineStr"/>
@@ -8608,7 +8568,7 @@
       </c>
       <c r="CQ21" t="inlineStr">
         <is>
-          <t>Positive (n = 237)</t>
+          <t>Positive (n = 40)</t>
         </is>
       </c>
       <c r="CR21" t="b">
